--- a/biology/Botanique/Pétasite/Pétasite.xlsx
+++ b/biology/Botanique/Pétasite/Pétasite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9tasite</t>
+          <t>Pétasite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Petasites
 Petasites (Les Pétasites) est un genre de plante à fleurs de la famille des Astéracées. Comme le tussilage, ils apprécient les abords humides des ruisseaux.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A9tasite</t>
+          <t>Pétasite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Petasites vient du grec petasos, « chapeau à large bord », en référence aux larges feuilles arrondies en forme de grands chapeaux[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Petasites vient du grec petasos, « chapeau à large bord », en référence aux larges feuilles arrondies en forme de grands chapeaux.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P%C3%A9tasite</t>
+          <t>Pétasite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pétasites sont des plantes herbacées vivaces dioïques. Ils possèdent en général de grandes feuilles basales et des hampes florales écailleuses qui portent de nombreux capitules. Les fleurons des pieds mâles sont le plus souvent tubuleux. Après floraison les inflorescences des pieds femelles s'allongent considérablement.
 Les pétasites mâles sont parfois confondus avec le tussilage, l'inflorescence des pieds femelles les en distingue clairement.
@@ -559,7 +575,7 @@
 			Petasites pyrenaicus.
 			Petasites radiatus.
 			Petasites spurius.
-Confusions possibles avec d'autres Astéracées à larges feuilles rondes qui affectionnent les zones humides comme Tussilago farfara, qui fleurit jaune avant l'apparition des feuilles, ou les Adénostyles (Adenostyles), dont la floraison a des teintes plus vives[2].
+Confusions possibles avec d'autres Astéracées à larges feuilles rondes qui affectionnent les zones humides comme Tussilago farfara, qui fleurit jaune avant l'apparition des feuilles, ou les Adénostyles (Adenostyles), dont la floraison a des teintes plus vives.
 </t>
         </is>
       </c>
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P%C3%A9tasite</t>
+          <t>Pétasite</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,9 +604,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (16 mars 2018)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (16 mars 2018) :
 Petasites albus (L.) Gaertn. - pétasite blanc
 Petasites doerfleri Hayek
 Petasites fominii Bordz.
@@ -604,7 +622,7 @@
 Petasites radiatus (J. F. Gmel.) J. Toman
 Petasites sibiricus (J. F. Gmel.) Dingwall
 Petasites spurius (Retz.) Rchb.
-Selon NCBI  (31 janv. 2011)[4] :
+Selon NCBI  (31 janv. 2011) :
 Petasites albus
 Petasites fragrans
 Petasites frigidus
@@ -612,7 +630,7 @@
 Petasites japonicus
 Petasites palmatus
 Petasites tricholobus
-Selon ITIS      (31 janv. 2011)[5] :
+Selon ITIS      (31 janv. 2011) :
 Petasites frigidus (L.) Fr.
 Petasites hybridus (L.) G. Gaertn., B. Mey. &amp; Scherb.
 Petasites japonicus (Siebold &amp; Zucc.) Maxim.</t>
